--- a/src/demos/zdemo_excel38.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel38.w3mi.data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="19035" windowHeight="8445"/>
   </bookViews>
   <sheets>
-    <sheet name="Demo Icons" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo Iconls" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725"/>
@@ -103,7 +103,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EEC95A8EE3653907FDF"/>
+        <xdr:cNvPr id="1" name="0800271CCEE91EDC95A98A733BD1E059"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -130,7 +130,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="0800271CCEE91EEC95A8EE3653909FDF"/>
+        <xdr:cNvPr id="2" name="0800271CCEE91EDC95A98A733BD20059"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -157,7 +157,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="0800271CCEE91EEC95A8EE365390BFDF"/>
+        <xdr:cNvPr id="3" name="0800271CCEE91EDC95A98A733BD22059"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -184,7 +184,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="0800271CCEE91EEC95A8EE365390DFDF"/>
+        <xdr:cNvPr id="4" name="0800271CCEE91EDC95A98A733BD24059"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>

--- a/src/demos/zdemo_excel38.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel38.w3mi.data.xlsx
@@ -103,7 +103,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EDC95A98A733BD1E059"/>
+        <xdr:cNvPr id="1" name="0800271CCEE91EDC95BACB1449F66497"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -130,7 +130,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="0800271CCEE91EDC95A98A733BD20059"/>
+        <xdr:cNvPr id="2" name="0800271CCEE91EDC95BACB1449F68497"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -157,7 +157,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="0800271CCEE91EDC95A98A733BD22059"/>
+        <xdr:cNvPr id="3" name="0800271CCEE91EDC95BACB1449F6A497"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -184,7 +184,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="0800271CCEE91EDC95A98A733BD24059"/>
+        <xdr:cNvPr id="4" name="0800271CCEE91EDC95BACB1449F6C497"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>

--- a/src/demos/zdemo_excel38.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel38.w3mi.data.xlsx
@@ -103,7 +103,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EDC95BACB1449F66497"/>
+        <xdr:cNvPr id="1" name="0800271CCEE91EDC95BF00BB62D3C731"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -130,7 +130,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="0800271CCEE91EDC95BACB1449F68497"/>
+        <xdr:cNvPr id="2" name="0800271CCEE91EDC95BF00BB62D3E731"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -157,7 +157,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="0800271CCEE91EDC95BACB1449F6A497"/>
+        <xdr:cNvPr id="3" name="0800271CCEE91EDC95BF00BB62D40731"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -184,7 +184,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="0800271CCEE91EDC95BACB1449F6C497"/>
+        <xdr:cNvPr id="4" name="0800271CCEE91EDC95BF00BB62D42731"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
